--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -35,22 +35,22 @@
     <t>4.85</t>
   </si>
   <si>
-    <t>Московский государственный университет</t>
+    <t>[Московский государственный университет]</t>
+  </si>
+  <si>
+    <t>Инженерия</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>[Новосибирский государственный университет]</t>
   </si>
   <si>
     <t>Медицина</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Санкт-Петербургский государственный университет</t>
-  </si>
-  <si>
-    <t>Инженерия</t>
-  </si>
-  <si>
-    <t>Новосибирский государственный университет</t>
+    <t>[Санкт-Петербургский государственный университет]</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
     <col min="2" max="2" width="19.1171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.98046875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="44.62890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="45.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
